--- a/Code/Results/Cases/Case_1_240/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_240/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.282029092069946</v>
+        <v>7.809785945681368</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>17.59498400803738</v>
+        <v>9.595176924504266</v>
       </c>
       <c r="E2">
-        <v>18.50059796398624</v>
+        <v>10.48731393807477</v>
       </c>
       <c r="F2">
-        <v>73.6521978962342</v>
+        <v>67.70479850439743</v>
       </c>
       <c r="G2">
-        <v>1.814155769980491</v>
+        <v>3.827234268252599</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.056046065316028</v>
+        <v>8.702682834169476</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>74.16722847927551</v>
+        <v>48.62621894029864</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.905939389137138</v>
+        <v>7.739521038045326</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>15.56767647994783</v>
+        <v>9.286498472122851</v>
       </c>
       <c r="E3">
-        <v>16.82434472538861</v>
+        <v>9.954504261527433</v>
       </c>
       <c r="F3">
-        <v>64.62087329290091</v>
+        <v>67.90224288708461</v>
       </c>
       <c r="G3">
-        <v>1.892046562729769</v>
+        <v>3.840385504923581</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.467703821111435</v>
+        <v>8.701777627167047</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>67.28448398442495</v>
+        <v>46.90597461090255</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.672843568864868</v>
+        <v>7.697950958231699</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>14.43576741502964</v>
+        <v>9.098567622237313</v>
       </c>
       <c r="E4">
-        <v>15.85021287898635</v>
+        <v>9.612656639318635</v>
       </c>
       <c r="F4">
-        <v>59.93472286653897</v>
+        <v>68.07359933462178</v>
       </c>
       <c r="G4">
-        <v>1.933702370314894</v>
+        <v>3.848790165778024</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.240747741328464</v>
+        <v>8.703117380861245</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>63.24267623059675</v>
+        <v>45.82440484611626</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.57715146400316</v>
+        <v>7.681423838819826</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>13.98899493642065</v>
+        <v>9.022505779376933</v>
       </c>
       <c r="E5">
-        <v>15.45863464884238</v>
+        <v>9.469748082937125</v>
       </c>
       <c r="F5">
-        <v>58.16694052870994</v>
+        <v>68.15569381798305</v>
       </c>
       <c r="G5">
-        <v>1.949771501531895</v>
+        <v>3.852299102063601</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.192364039244118</v>
+        <v>8.70413748162049</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>61.61009042767549</v>
+        <v>45.37783001061641</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.561217779018594</v>
+        <v>7.678704966400736</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>13.91542428111538</v>
+        <v>9.00991083914751</v>
       </c>
       <c r="E6">
-        <v>15.39378053362145</v>
+        <v>9.445803743970353</v>
       </c>
       <c r="F6">
-        <v>57.88060737093866</v>
+        <v>68.17005635129567</v>
       </c>
       <c r="G6">
-        <v>1.952397163865741</v>
+        <v>3.852886859969758</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.184544642052511</v>
+        <v>8.704335432736256</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>61.33927231574594</v>
+        <v>45.30334169649888</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.671555967998</v>
+        <v>7.697726372783553</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>14.42969583442882</v>
+        <v>9.097539553028598</v>
       </c>
       <c r="E7">
-        <v>15.84491767414863</v>
+        <v>9.610743774440101</v>
       </c>
       <c r="F7">
-        <v>59.9103729031523</v>
+        <v>68.07465727833184</v>
       </c>
       <c r="G7">
-        <v>1.933922173258059</v>
+        <v>3.84883714716115</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.240080144015886</v>
+        <v>8.70312922179996</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>63.2206287744554</v>
+        <v>45.81840501256553</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.152641249849381</v>
+        <v>7.785242885201263</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>16.86054382543492</v>
+        <v>9.488482855354874</v>
       </c>
       <c r="E8">
-        <v>17.9038866922551</v>
+        <v>10.30670252782794</v>
       </c>
       <c r="F8">
-        <v>70.29530889484816</v>
+        <v>67.7622714834104</v>
       </c>
       <c r="G8">
-        <v>1.842848838723501</v>
+        <v>3.831701018102008</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.849121950700869</v>
+        <v>8.701975764869605</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>71.72856902698982</v>
+        <v>48.03864523142493</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.152641249849381</v>
+        <v>7.968540703420469</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>16.86054382543492</v>
+        <v>10.2628575485039</v>
       </c>
       <c r="E9">
-        <v>17.9038866922551</v>
+        <v>11.55164613679425</v>
       </c>
       <c r="F9">
-        <v>70.29530889484816</v>
+        <v>67.56227633002923</v>
       </c>
       <c r="G9">
-        <v>1.842848838723501</v>
+        <v>3.800664302188297</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.849121950700869</v>
+        <v>8.714873064270868</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>71.72856902698982</v>
+        <v>52.17053059572703</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.152641249849381</v>
+        <v>8.10921880215345</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>16.86054382543492</v>
+        <v>10.83042408048767</v>
       </c>
       <c r="E10">
-        <v>17.9038866922551</v>
+        <v>12.3900921466708</v>
       </c>
       <c r="F10">
-        <v>70.29530889484816</v>
+        <v>67.68668823783406</v>
       </c>
       <c r="G10">
-        <v>1.842848838723501</v>
+        <v>3.779355562539251</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.849121950700869</v>
+        <v>8.733763698564717</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>71.72856902698982</v>
+        <v>55.04673003044748</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.152641249849381</v>
+        <v>8.17427845405293</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>16.86054382543492</v>
+        <v>11.08722134229435</v>
       </c>
       <c r="E11">
-        <v>17.9038866922551</v>
+        <v>12.75456755066412</v>
       </c>
       <c r="F11">
-        <v>70.29530889484816</v>
+        <v>67.80626063797041</v>
       </c>
       <c r="G11">
-        <v>1.842848838723501</v>
+        <v>3.769969847501043</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.849121950700869</v>
+        <v>8.744441251372963</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>71.72856902698982</v>
+        <v>56.31650898230983</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.152641249849381</v>
+        <v>8.199047286595276</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>16.86054382543492</v>
+        <v>11.18418456959567</v>
       </c>
       <c r="E12">
-        <v>17.9038866922551</v>
+        <v>12.8901284558734</v>
       </c>
       <c r="F12">
-        <v>70.29530889484816</v>
+        <v>67.8609116858056</v>
       </c>
       <c r="G12">
-        <v>1.842848838723501</v>
+        <v>3.766458598354824</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.849121950700869</v>
+        <v>8.748787516804226</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>71.72856902698982</v>
+        <v>56.79151453017241</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.152641249849381</v>
+        <v>8.193707330326975</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>16.86054382543492</v>
+        <v>11.16331543901808</v>
       </c>
       <c r="E13">
-        <v>17.9038866922551</v>
+        <v>12.86104257421104</v>
       </c>
       <c r="F13">
-        <v>70.29530889484816</v>
+        <v>67.84871991474056</v>
       </c>
       <c r="G13">
-        <v>1.842848838723501</v>
+        <v>3.76721292181091</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.849121950700869</v>
+        <v>8.747837946267714</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>71.72856902698982</v>
+        <v>56.68947694055954</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.152641249849381</v>
+        <v>8.176313671913036</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>16.86054382543492</v>
+        <v>11.09520460637958</v>
       </c>
       <c r="E14">
-        <v>17.9038866922551</v>
+        <v>12.7657695873896</v>
       </c>
       <c r="F14">
-        <v>70.29530889484816</v>
+        <v>67.81056723060021</v>
       </c>
       <c r="G14">
-        <v>1.842848838723501</v>
+        <v>3.769680122648011</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.849121950700869</v>
+        <v>8.744792731635254</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>71.72856902698982</v>
+        <v>56.35570629872441</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.152641249849381</v>
+        <v>8.16567614408944</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>16.86054382543492</v>
+        <v>11.05344604302815</v>
       </c>
       <c r="E15">
-        <v>17.9038866922551</v>
+        <v>12.70709151115613</v>
       </c>
       <c r="F15">
-        <v>70.29530889484816</v>
+        <v>67.78842721186949</v>
       </c>
       <c r="G15">
-        <v>1.842848838723501</v>
+        <v>3.771196902892673</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.849121950700869</v>
+        <v>8.742966994955561</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>71.72856902698982</v>
+        <v>56.15049510918878</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.152641249849381</v>
+        <v>8.104986632606087</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>16.86054382543492</v>
+        <v>10.81360668235749</v>
       </c>
       <c r="E16">
-        <v>17.9038866922551</v>
+        <v>12.3659298717299</v>
       </c>
       <c r="F16">
-        <v>70.29530889484816</v>
+        <v>67.68016842258555</v>
       </c>
       <c r="G16">
-        <v>1.842848838723501</v>
+        <v>3.779975020784192</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.849121950700869</v>
+        <v>8.733108104958955</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>71.72856902698982</v>
+        <v>54.96294501323398</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.152641249849381</v>
+        <v>8.068013339732488</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>16.86054382543492</v>
+        <v>10.66605626588436</v>
       </c>
       <c r="E17">
-        <v>17.9038866922551</v>
+        <v>12.15228126010263</v>
       </c>
       <c r="F17">
-        <v>70.29530889484816</v>
+        <v>67.63011356985629</v>
       </c>
       <c r="G17">
-        <v>1.842848838723501</v>
+        <v>3.785437999307208</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.849121950700869</v>
+        <v>8.727596033983961</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>71.72856902698982</v>
+        <v>54.22431746391823</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.152641249849381</v>
+        <v>8.046848728545744</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>16.86054382543492</v>
+        <v>10.5810623388357</v>
       </c>
       <c r="E18">
-        <v>17.9038866922551</v>
+        <v>12.02780267754559</v>
       </c>
       <c r="F18">
-        <v>70.29530889484816</v>
+        <v>67.60723290710355</v>
       </c>
       <c r="G18">
-        <v>1.842848838723501</v>
+        <v>3.788609209061694</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.849121950700869</v>
+        <v>8.724621603287282</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>71.72856902698982</v>
+        <v>53.79585715174806</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.152641249849381</v>
+        <v>8.039700816234316</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>16.86054382543492</v>
+        <v>10.55226568403957</v>
       </c>
       <c r="E19">
-        <v>17.9038866922551</v>
+        <v>11.98538350331799</v>
       </c>
       <c r="F19">
-        <v>70.29530889484816</v>
+        <v>67.60049105773292</v>
       </c>
       <c r="G19">
-        <v>1.842848838723501</v>
+        <v>3.78968795510951</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.849121950700869</v>
+        <v>8.723648073698536</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>71.72856902698982</v>
+        <v>53.65017513428566</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.152641249849381</v>
+        <v>8.071938861875456</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>16.86054382543492</v>
+        <v>10.68177699966172</v>
       </c>
       <c r="E20">
-        <v>17.9038866922551</v>
+        <v>12.17518963629113</v>
       </c>
       <c r="F20">
-        <v>70.29530889484816</v>
+        <v>67.63482805033273</v>
       </c>
       <c r="G20">
-        <v>1.842848838723501</v>
+        <v>3.784853458939987</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.849121950700869</v>
+        <v>8.728162498652244</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>71.72856902698982</v>
+        <v>54.30332257957413</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.152641249849381</v>
+        <v>8.181419190891106</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>16.86054382543492</v>
+        <v>11.11521860516465</v>
       </c>
       <c r="E21">
-        <v>17.9038866922551</v>
+        <v>12.79382041798562</v>
       </c>
       <c r="F21">
-        <v>70.29530889484816</v>
+        <v>67.821516806052</v>
       </c>
       <c r="G21">
-        <v>1.842848838723501</v>
+        <v>3.768954292122657</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.849121950700869</v>
+        <v>8.745678937881603</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>71.72856902698982</v>
+        <v>56.45390311158878</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.152641249849381</v>
+        <v>8.253731562636954</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>16.86054382543492</v>
+        <v>11.39683388045961</v>
       </c>
       <c r="E22">
-        <v>17.9038866922551</v>
+        <v>13.18379973238041</v>
       </c>
       <c r="F22">
-        <v>70.29530889484816</v>
+        <v>67.998290440663</v>
       </c>
       <c r="G22">
-        <v>1.842848838723501</v>
+        <v>3.758812760373657</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.849121950700869</v>
+        <v>8.758894112083208</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>71.72856902698982</v>
+        <v>57.82533892729597</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.152641249849381</v>
+        <v>8.215074383878344</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>16.86054382543492</v>
+        <v>11.24670659360477</v>
       </c>
       <c r="E23">
-        <v>17.9038866922551</v>
+        <v>12.97697696319774</v>
       </c>
       <c r="F23">
-        <v>70.29530889484816</v>
+        <v>67.89883145606517</v>
       </c>
       <c r="G23">
-        <v>1.842848838723501</v>
+        <v>3.764203114842776</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.849121950700869</v>
+        <v>8.751678131490131</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>71.72856902698982</v>
+        <v>57.09657804308406</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.152641249849381</v>
+        <v>8.070163845706439</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>16.86054382543492</v>
+        <v>10.67467016436119</v>
       </c>
       <c r="E24">
-        <v>17.9038866922551</v>
+        <v>12.16483789435767</v>
       </c>
       <c r="F24">
-        <v>70.29530889484816</v>
+        <v>67.63267829137625</v>
       </c>
       <c r="G24">
-        <v>1.842848838723501</v>
+        <v>3.785117634630756</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.849121950700869</v>
+        <v>8.727905794292205</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>71.72856902698982</v>
+        <v>54.26761622332208</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.152641249849381</v>
+        <v>7.917816554385761</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>16.86054382543492</v>
+        <v>10.05320084181762</v>
       </c>
       <c r="E25">
-        <v>17.9038866922551</v>
+        <v>11.22806398573369</v>
       </c>
       <c r="F25">
-        <v>70.29530889484816</v>
+        <v>67.57013108688409</v>
       </c>
       <c r="G25">
-        <v>1.842848838723501</v>
+        <v>3.808792905596137</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.849121950700869</v>
+        <v>8.709743454426805</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>71.72856902698982</v>
+        <v>51.07921433467657</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_240/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_240/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.809785945681368</v>
+        <v>7.282029092069934</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.595176924504266</v>
+        <v>17.59498400803744</v>
       </c>
       <c r="E2">
-        <v>10.48731393807477</v>
+        <v>18.50059796398622</v>
       </c>
       <c r="F2">
-        <v>67.70479850439743</v>
+        <v>73.65219789623431</v>
       </c>
       <c r="G2">
-        <v>3.827234268252599</v>
+        <v>1.81415576998047</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.702682834169476</v>
+        <v>7.056046065316046</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>48.62621894029864</v>
+        <v>74.16722847927566</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.739521038045326</v>
+        <v>6.905939389137057</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.286498472122851</v>
+        <v>15.56767647994799</v>
       </c>
       <c r="E3">
-        <v>9.954504261527433</v>
+        <v>16.82434472538855</v>
       </c>
       <c r="F3">
-        <v>67.90224288708461</v>
+        <v>64.62087329290172</v>
       </c>
       <c r="G3">
-        <v>3.840385504923581</v>
+        <v>1.892046562729903</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.701777627167047</v>
+        <v>6.467703821111384</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>46.90597461090255</v>
+        <v>67.28448398442481</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.697950958231699</v>
+        <v>6.672843568864896</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.098567622237313</v>
+        <v>14.4357674150296</v>
       </c>
       <c r="E4">
-        <v>9.612656639318635</v>
+        <v>15.85021287898638</v>
       </c>
       <c r="F4">
-        <v>68.07359933462178</v>
+        <v>59.93472286653921</v>
       </c>
       <c r="G4">
-        <v>3.848790165778024</v>
+        <v>1.93370237031516</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.703117380861245</v>
+        <v>6.240747741328515</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>45.82440484611626</v>
+        <v>63.24267623059683</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.681423838819826</v>
+        <v>6.577151464003118</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.022505779376933</v>
+        <v>13.98899493642065</v>
       </c>
       <c r="E5">
-        <v>9.469748082937125</v>
+        <v>15.45863464884242</v>
       </c>
       <c r="F5">
-        <v>68.15569381798305</v>
+        <v>58.16694052870987</v>
       </c>
       <c r="G5">
-        <v>3.852299102063601</v>
+        <v>1.949771501532148</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.70413748162049</v>
+        <v>6.192364039244117</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>45.37783001061641</v>
+        <v>61.61009042767554</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.678704966400736</v>
+        <v>6.56121777901872</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.00991083914751</v>
+        <v>13.91542428111523</v>
       </c>
       <c r="E6">
-        <v>9.445803743970353</v>
+        <v>15.39378053362136</v>
       </c>
       <c r="F6">
-        <v>68.17005635129567</v>
+        <v>57.88060737093823</v>
       </c>
       <c r="G6">
-        <v>3.852886859969758</v>
+        <v>1.952397163865606</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.704335432736256</v>
+        <v>6.184544642052519</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>45.30334169649888</v>
+        <v>61.33927231574585</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.697726372783553</v>
+        <v>6.671555967997998</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.097539553028598</v>
+        <v>14.42969583442891</v>
       </c>
       <c r="E7">
-        <v>9.610743774440101</v>
+        <v>15.84491767414868</v>
       </c>
       <c r="F7">
-        <v>68.07465727833184</v>
+        <v>59.91037290315276</v>
       </c>
       <c r="G7">
-        <v>3.84883714716115</v>
+        <v>1.933922173257924</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.70312922179996</v>
+        <v>6.240080144015899</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>45.81840501256553</v>
+        <v>63.22062877445556</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.785242885201263</v>
+        <v>7.152641249849383</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.488482855354874</v>
+        <v>16.86054382543494</v>
       </c>
       <c r="E8">
-        <v>10.30670252782794</v>
+        <v>17.90388669225507</v>
       </c>
       <c r="F8">
-        <v>67.7622714834104</v>
+        <v>70.29530889484802</v>
       </c>
       <c r="G8">
-        <v>3.831701018102008</v>
+        <v>1.842848838723636</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.701975764869605</v>
+        <v>6.849121950700848</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>48.03864523142493</v>
+        <v>71.72856902698962</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.968540703420469</v>
+        <v>7.152641249849383</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.2628575485039</v>
+        <v>16.86054382543494</v>
       </c>
       <c r="E9">
-        <v>11.55164613679425</v>
+        <v>17.90388669225507</v>
       </c>
       <c r="F9">
-        <v>67.56227633002923</v>
+        <v>70.29530889484802</v>
       </c>
       <c r="G9">
-        <v>3.800664302188297</v>
+        <v>1.842848838723636</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.714873064270868</v>
+        <v>6.849121950700848</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>52.17053059572703</v>
+        <v>71.72856902698962</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.10921880215345</v>
+        <v>7.152641249849383</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.83042408048767</v>
+        <v>16.86054382543494</v>
       </c>
       <c r="E10">
-        <v>12.3900921466708</v>
+        <v>17.90388669225507</v>
       </c>
       <c r="F10">
-        <v>67.68668823783406</v>
+        <v>70.29530889484802</v>
       </c>
       <c r="G10">
-        <v>3.779355562539251</v>
+        <v>1.842848838723636</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.733763698564717</v>
+        <v>6.849121950700848</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>55.04673003044748</v>
+        <v>71.72856902698962</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.17427845405293</v>
+        <v>7.152641249849383</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.08722134229435</v>
+        <v>16.86054382543494</v>
       </c>
       <c r="E11">
-        <v>12.75456755066412</v>
+        <v>17.90388669225507</v>
       </c>
       <c r="F11">
-        <v>67.80626063797041</v>
+        <v>70.29530889484802</v>
       </c>
       <c r="G11">
-        <v>3.769969847501043</v>
+        <v>1.842848838723636</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.744441251372963</v>
+        <v>6.849121950700848</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>56.31650898230983</v>
+        <v>71.72856902698962</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.199047286595276</v>
+        <v>7.152641249849383</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.18418456959567</v>
+        <v>16.86054382543494</v>
       </c>
       <c r="E12">
-        <v>12.8901284558734</v>
+        <v>17.90388669225507</v>
       </c>
       <c r="F12">
-        <v>67.8609116858056</v>
+        <v>70.29530889484802</v>
       </c>
       <c r="G12">
-        <v>3.766458598354824</v>
+        <v>1.842848838723636</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.748787516804226</v>
+        <v>6.849121950700848</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>56.79151453017241</v>
+        <v>71.72856902698962</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.193707330326975</v>
+        <v>7.152641249849383</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.16331543901808</v>
+        <v>16.86054382543494</v>
       </c>
       <c r="E13">
-        <v>12.86104257421104</v>
+        <v>17.90388669225507</v>
       </c>
       <c r="F13">
-        <v>67.84871991474056</v>
+        <v>70.29530889484802</v>
       </c>
       <c r="G13">
-        <v>3.76721292181091</v>
+        <v>1.842848838723636</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.747837946267714</v>
+        <v>6.849121950700848</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>56.68947694055954</v>
+        <v>71.72856902698962</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.176313671913036</v>
+        <v>7.152641249849383</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.09520460637958</v>
+        <v>16.86054382543494</v>
       </c>
       <c r="E14">
-        <v>12.7657695873896</v>
+        <v>17.90388669225507</v>
       </c>
       <c r="F14">
-        <v>67.81056723060021</v>
+        <v>70.29530889484802</v>
       </c>
       <c r="G14">
-        <v>3.769680122648011</v>
+        <v>1.842848838723636</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.744792731635254</v>
+        <v>6.849121950700848</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>56.35570629872441</v>
+        <v>71.72856902698962</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.16567614408944</v>
+        <v>7.152641249849383</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.05344604302815</v>
+        <v>16.86054382543494</v>
       </c>
       <c r="E15">
-        <v>12.70709151115613</v>
+        <v>17.90388669225507</v>
       </c>
       <c r="F15">
-        <v>67.78842721186949</v>
+        <v>70.29530889484802</v>
       </c>
       <c r="G15">
-        <v>3.771196902892673</v>
+        <v>1.842848838723636</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.742966994955561</v>
+        <v>6.849121950700848</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>56.15049510918878</v>
+        <v>71.72856902698962</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.104986632606087</v>
+        <v>7.152641249849383</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.81360668235749</v>
+        <v>16.86054382543494</v>
       </c>
       <c r="E16">
-        <v>12.3659298717299</v>
+        <v>17.90388669225507</v>
       </c>
       <c r="F16">
-        <v>67.68016842258555</v>
+        <v>70.29530889484802</v>
       </c>
       <c r="G16">
-        <v>3.779975020784192</v>
+        <v>1.842848838723636</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.733108104958955</v>
+        <v>6.849121950700848</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>54.96294501323398</v>
+        <v>71.72856902698962</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.068013339732488</v>
+        <v>7.152641249849383</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.66605626588436</v>
+        <v>16.86054382543494</v>
       </c>
       <c r="E17">
-        <v>12.15228126010263</v>
+        <v>17.90388669225507</v>
       </c>
       <c r="F17">
-        <v>67.63011356985629</v>
+        <v>70.29530889484802</v>
       </c>
       <c r="G17">
-        <v>3.785437999307208</v>
+        <v>1.842848838723636</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.727596033983961</v>
+        <v>6.849121950700848</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>54.22431746391823</v>
+        <v>71.72856902698962</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.046848728545744</v>
+        <v>7.152641249849383</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.5810623388357</v>
+        <v>16.86054382543494</v>
       </c>
       <c r="E18">
-        <v>12.02780267754559</v>
+        <v>17.90388669225507</v>
       </c>
       <c r="F18">
-        <v>67.60723290710355</v>
+        <v>70.29530889484802</v>
       </c>
       <c r="G18">
-        <v>3.788609209061694</v>
+        <v>1.842848838723636</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.724621603287282</v>
+        <v>6.849121950700848</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>53.79585715174806</v>
+        <v>71.72856902698962</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.039700816234316</v>
+        <v>7.152641249849383</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.55226568403957</v>
+        <v>16.86054382543494</v>
       </c>
       <c r="E19">
-        <v>11.98538350331799</v>
+        <v>17.90388669225507</v>
       </c>
       <c r="F19">
-        <v>67.60049105773292</v>
+        <v>70.29530889484802</v>
       </c>
       <c r="G19">
-        <v>3.78968795510951</v>
+        <v>1.842848838723636</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.723648073698536</v>
+        <v>6.849121950700848</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>53.65017513428566</v>
+        <v>71.72856902698962</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.071938861875456</v>
+        <v>7.152641249849383</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.68177699966172</v>
+        <v>16.86054382543494</v>
       </c>
       <c r="E20">
-        <v>12.17518963629113</v>
+        <v>17.90388669225507</v>
       </c>
       <c r="F20">
-        <v>67.63482805033273</v>
+        <v>70.29530889484802</v>
       </c>
       <c r="G20">
-        <v>3.784853458939987</v>
+        <v>1.842848838723636</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.728162498652244</v>
+        <v>6.849121950700848</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>54.30332257957413</v>
+        <v>71.72856902698962</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.181419190891106</v>
+        <v>7.152641249849383</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.11521860516465</v>
+        <v>16.86054382543494</v>
       </c>
       <c r="E21">
-        <v>12.79382041798562</v>
+        <v>17.90388669225507</v>
       </c>
       <c r="F21">
-        <v>67.821516806052</v>
+        <v>70.29530889484802</v>
       </c>
       <c r="G21">
-        <v>3.768954292122657</v>
+        <v>1.842848838723636</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.745678937881603</v>
+        <v>6.849121950700848</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>56.45390311158878</v>
+        <v>71.72856902698962</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.253731562636954</v>
+        <v>7.152641249849383</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.39683388045961</v>
+        <v>16.86054382543494</v>
       </c>
       <c r="E22">
-        <v>13.18379973238041</v>
+        <v>17.90388669225507</v>
       </c>
       <c r="F22">
-        <v>67.998290440663</v>
+        <v>70.29530889484802</v>
       </c>
       <c r="G22">
-        <v>3.758812760373657</v>
+        <v>1.842848838723636</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.758894112083208</v>
+        <v>6.849121950700848</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>57.82533892729597</v>
+        <v>71.72856902698962</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.215074383878344</v>
+        <v>7.152641249849383</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.24670659360477</v>
+        <v>16.86054382543494</v>
       </c>
       <c r="E23">
-        <v>12.97697696319774</v>
+        <v>17.90388669225507</v>
       </c>
       <c r="F23">
-        <v>67.89883145606517</v>
+        <v>70.29530889484802</v>
       </c>
       <c r="G23">
-        <v>3.764203114842776</v>
+        <v>1.842848838723636</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.751678131490131</v>
+        <v>6.849121950700848</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>57.09657804308406</v>
+        <v>71.72856902698962</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.070163845706439</v>
+        <v>7.152641249849383</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.67467016436119</v>
+        <v>16.86054382543494</v>
       </c>
       <c r="E24">
-        <v>12.16483789435767</v>
+        <v>17.90388669225507</v>
       </c>
       <c r="F24">
-        <v>67.63267829137625</v>
+        <v>70.29530889484802</v>
       </c>
       <c r="G24">
-        <v>3.785117634630756</v>
+        <v>1.842848838723636</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.727905794292205</v>
+        <v>6.849121950700848</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>54.26761622332208</v>
+        <v>71.72856902698962</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.917816554385761</v>
+        <v>7.152641249849383</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.05320084181762</v>
+        <v>16.86054382543494</v>
       </c>
       <c r="E25">
-        <v>11.22806398573369</v>
+        <v>17.90388669225507</v>
       </c>
       <c r="F25">
-        <v>67.57013108688409</v>
+        <v>70.29530889484802</v>
       </c>
       <c r="G25">
-        <v>3.808792905596137</v>
+        <v>1.842848838723636</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.709743454426805</v>
+        <v>6.849121950700848</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>51.07921433467657</v>
+        <v>71.72856902698962</v>
       </c>
       <c r="N25">
         <v>0</v>
